--- a/doc/C++ Compiler Matrix.xlsx
+++ b/doc/C++ Compiler Matrix.xlsx
@@ -2220,7 +2220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2340,15 +2340,6 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="28"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2456,7 +2447,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2535,7 +2526,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2555,10 +2546,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4432,11 +4420,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1262503680"/>
-        <c:axId val="1262506944"/>
+        <c:axId val="1409108512"/>
+        <c:axId val="1409110144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1262503680"/>
+        <c:axId val="1409108512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,7 +4434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1262506944"/>
+        <c:crossAx val="1409110144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4454,7 +4442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1262506944"/>
+        <c:axId val="1409110144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4466,7 +4454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1262503680"/>
+        <c:crossAx val="1409108512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6629,11 +6617,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1262507488"/>
-        <c:axId val="1262499328"/>
+        <c:axId val="1454005456"/>
+        <c:axId val="1454004912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1262507488"/>
+        <c:axId val="1454005456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6643,7 +6631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1262499328"/>
+        <c:crossAx val="1454004912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6651,7 +6639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1262499328"/>
+        <c:axId val="1454004912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6663,7 +6651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1262507488"/>
+        <c:crossAx val="1454005456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7073,38 +7061,38 @@
     <col min="24" max="29" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:33" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -18147,37 +18135,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
